--- a/data/lista-cnpj.xlsx
+++ b/data/lista-cnpj.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grouperenault-my.sharepoint.com/personal/narciso_nascimento-extern_renault_com/Documents/Área de Trabalho/projetos/rnt-consulta-cnpj/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grouperenault-my.sharepoint.com/personal/narciso_nascimento-extern_renault_com/Documents/Área de Trabalho/projetos/cnpj-automacao-coleta-de-dados/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{2ED2524F-09E9-4AC4-A6F9-919F27A76238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2A5EEAA-C108-4C2C-8454-8184E8155952}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{2ED2524F-09E9-4AC4-A6F9-919F27A76238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29C08128-6E40-437D-8FDB-1C8679FAC724}"/>
   <bookViews>
-    <workbookView xWindow="36660" yWindow="915" windowWidth="29220" windowHeight="14205" xr2:uid="{74E46534-46FB-4E86-8053-FDC9A3C46E4C}"/>
+    <workbookView xWindow="33405" yWindow="1110" windowWidth="30540" windowHeight="12210" xr2:uid="{74E46534-46FB-4E86-8053-FDC9A3C46E4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB33B3F-120A-4E2F-9BC0-4786A4AA204F}">
   <dimension ref="A1:A5777"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A5752" workbookViewId="0">
+      <selection activeCell="A5764" sqref="A5764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
